--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/20_Burdur_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/20_Burdur_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8867031C-66BF-489F-9797-41625EE13D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE58FE1C-4030-40CB-BB46-85D8E5283C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{153E0378-E874-4466-A76D-5B8B2E2EACC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{3065F8F2-9C74-4F5C-83E5-6B1754E0DC7E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{2DA91993-E925-4FC8-ABE9-081DFFC2C02C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E25369BB-1575-421B-91EF-3BDD69D40F29}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{76799F45-A243-44DF-94E1-74489C2C5566}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{706D2BC7-E6C3-4038-8E8E-BA4586292625}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{23825024-7200-40BA-ABCE-895496BD1C9B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{08036424-4D8B-4194-A09F-EAD7A9111DA2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2A8CF00D-E968-4A4E-AF35-45EBC958E4CD}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3F4D6969-E3F8-4FBC-BCEC-4DFEC58DFAC3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6CF0B52B-CE1F-4110-8493-AC89BD137C7A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8A505A79-EA15-4A47-9B17-1A09DBE3EEA0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D9D34B22-0641-433B-A0AB-9DAF857F5951}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F0E8B975-3691-4D9E-8589-94276E2C3B56}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{712DA5BB-76A2-4C13-BC39-6C1B6DA7ECC3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FCA37374-3D4E-4FB1-BCEE-9B525BD6D0CC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F897E4FA-459C-4E6C-9D6C-F80243ECB58D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC023A1A-3CF0-43BE-94D2-BF2512C290C5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2598,17 +2598,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C88D534-191A-45CB-BD6C-634B9CCCDA15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5AE0A096-B6A7-4F2F-9B49-DACA84754353}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7CF84BD1-0E26-4ACA-A46A-9670A2C5FCA3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{640F6398-C714-46D7-B6E5-F00D80E9D04D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB6E1256-3BDF-42D6-8B7B-B39FB8E628EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73D88068-DD26-4A23-BD9F-76CF0286B6E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93038163-83D0-435A-8177-271ECD71D40C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{296694A0-9ACD-4212-9BD5-891F3897435D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3DBABA3-6029-459E-8187-C21322B7C3CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B95D05E0-60F9-4568-AD20-BAE9082547F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F337CD9-52D6-4DF6-A81E-ECB005FBF72E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CBECBCA-3671-46BE-A328-B7C101C53F48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{741F435F-600A-4409-B69D-2FE83A603825}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2E1961E6-9567-4077-8555-0BDF5465AF39}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F524CC5B-938D-4E1E-B1AA-FD0FAF18679B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A34D8D8E-258B-445E-ABC9-933D8D896BF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29ED53AC-4837-406E-B73B-3FA33B9A6CE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B83E51C9-8B0F-44D3-BED8-012213E2B6A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66506F18-99FA-47C5-A45F-FCBAFFC49131}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A8B620F-BED0-481A-8E24-D2A344286C0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{292588F8-2609-46A2-8079-A6BFAACA24F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{039BE85B-4BD3-485D-A0E8-F61F3A8EEA7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2621,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B3ACDB-6ED1-4286-BCA2-46F2AB6FCF96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B8F5B-5551-4927-A895-EDC0F5D5C962}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3885,17 +3885,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF0E4C63-D126-40F8-A80D-F1A4821181BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AEB41CC-9C08-4CD5-A4BD-A06C31E4BFBD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ECA87A1E-1E1A-47A3-8F17-3605C18BEA98}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7BAFC3D-2DF2-4E5A-A7C6-4F64FAA2C26A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{362968F6-65E2-444C-9C24-64A0E9179CD9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EDC5F6C9-D854-4802-B82F-30022538F6AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3948B231-832F-4B7E-9A7C-AD4A27F7669C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19991773-7DA0-403D-A0EF-37612B00A0D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C71A607F-5FB9-41C6-B31F-3C70C565FEDB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58D9FCE7-CFCC-46E1-915D-DBD106BC36E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{472E9D43-35B3-4A37-9AFE-8A0DB3BF8434}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A89B59CB-1A55-49B8-AAB3-BE5F00CD0343}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A014A4DA-C6FA-4A1B-A7C1-13EBC45B11B2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D911708F-33BE-4E7A-8855-BFAE0E64CAC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{949E7F09-0464-4005-8F66-177A72F16A89}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90DFA900-CBE0-4733-900F-8FC35BAB5ED0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABFD9242-1974-41C4-83A3-FE2293B080B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDAE14BC-A93E-47CE-9414-6BE49F077A34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A54D275-BED7-47E3-A4F7-AE80DE9D3749}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E0FC1FB-029D-4B9C-AE1D-2C44FB2CA5A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F221C99-5B58-450B-9C52-69EEED3A8A68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1EEB8B3-D119-47CD-870C-FC41F3C1940A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3908,7 +3908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CA86F0-0428-449A-BD87-555526E4FE99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B18A0D8-93FF-4B2B-8320-A6D4AA893D44}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5172,17 +5172,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E9D94E3-3046-428F-A08B-573C8FFC4271}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B20BAEDE-DCAA-4756-8069-B54438110ADF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE3FAE80-443A-4A11-914E-1C478E5A54D4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BBF4974-36CF-4217-B6D1-AE765489F0B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9985FDED-B2E8-4FCB-BAEF-3B87ADA5F7BC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D929943-DDE7-4278-B441-5582ED4281E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECAC87BE-2439-467A-8D95-162105BCA42A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F69DB241-9F23-47F2-89CF-C4450C11E9AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DC95E11-8723-4874-8C5B-3461199597CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36CF948E-E19E-479F-8BD3-D0A72B82BD8E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD8D0E4F-0699-4427-8DCA-A97B1BDC0DF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{823A7EA2-40B9-4597-A72E-BAA5705BB457}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1D2241C-97A3-4F60-A8BE-0ADC5B017490}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6BADB93A-A688-4DA8-8404-EC4529B19AEE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE74491D-9616-4E9B-9EAC-A516536F6DAA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D55ECA6-9555-4E3F-B600-84640A2EDB0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAE42464-6043-4444-9065-04AA7D9B500A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C1845A9-4C86-4AF2-89C7-191A82698BBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED65F8B6-CCF7-44F3-8AFB-6007EE779B78}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC839CF8-9C0A-4598-8870-363306E78EA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C7F80C1-5E0A-4590-8ED0-7C61C09682AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FA99F20-F0E8-40C5-91F0-1B573FF3C586}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5195,7 +5195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E0D2B2-283F-4F8C-A810-948F3E46F07A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE395D4C-A670-4254-A7C4-C6B943250E5C}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6459,17 +6459,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{354C5026-8A78-44FC-A8C8-9C6419E3810B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2245B2DA-FEE2-4029-ABAE-965056547FFF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05C954EB-32AE-40B3-A498-89C746C51C8C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F3360731-36AB-42FB-8AE3-09159A18C1D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC26F742-A9A0-407B-AC8A-D923C19D137D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F6AAF87-DA1D-418E-AA43-6E483C1D0AE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9B7EA5C-36D7-436D-81B1-CE354FF3AA46}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E61E5ED3-49C6-4BAC-BDEC-BF5C216011E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0350B10A-317D-4077-98E2-40A767AA6C9C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4907159C-FF8E-4C59-B42D-B573DD39B7B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{799A01F4-39A5-49D5-90CB-1CC928990311}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86A3E4C2-7180-48A2-A4D3-CFE90630263D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2FDC867-675B-41C0-982B-375E7EF69F3E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC3D55E2-5643-412F-83B7-0B3F3E3D4262}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{44FD0DE8-0034-493E-9843-D2DE8295440F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F65DEECA-48B4-4881-850D-0A04AD5A281E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6807EBE9-684B-48BC-85C3-09BE5BA10F5E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CE89225-E136-4F38-A0E8-E0D0A70BD375}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A92CD01-7100-4DF4-93A8-CE2090F95292}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB3B55FE-59F1-4F8F-8244-222FA419DDCB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCC5EC04-858C-4597-9FFD-1D9DABF797A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7764442-EA37-43B4-B984-F3978943480D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6482,7 +6482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F33702-D5A5-4E64-A737-BEC625738303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542E0A3D-5507-49EB-A383-BFAE9FA44CBA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7767,17 +7767,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8DD69BE-6D38-4350-ADD2-AE4706BE817C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D039EF4-A0A2-402A-BD71-F6412F7748C8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F121702A-DDD4-4024-AD2C-7BB01728BA02}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A85976EB-154C-4C41-8B81-3EB85134E965}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE3EA2DB-3575-4845-A739-16F8568FD700}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACEE0D9E-DD96-4A8F-ABBE-89942181DB86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51AC64FF-7923-45F8-945F-43DAB80A28C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6DFC613-4198-45FE-981B-9ED360B194FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1309BD89-610F-404F-BF8E-0076205241AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED4239CF-64A5-4722-A7F8-A6149769E3E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60694C13-87A9-4EB4-BDF5-10DBB4D04E79}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{494F099F-1CE8-48C2-9E52-0CB018A5D203}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D51265B8-1845-4759-B4B8-32BB0AE9E80C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{29EA494C-8D0B-46FE-BD97-E9B2E4CAE2A4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84904665-915E-4E27-BDC4-7531811CF6EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29498E27-A97F-480A-BE06-0D989BE89B16}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06681D4D-EC93-4148-A58C-BF14C733BDCF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED6F62F2-F87C-4C05-B3E7-F9E47EFCEB02}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EEEE3D3-EAD6-4598-990F-858FAD0E55A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE57A42A-8CBC-496F-90E5-A1518BEA2A76}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD632FD1-CB24-4F7D-ABFF-DE18606EB14D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4A616CA-8CE9-409B-8414-14027F97F0D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7790,7 +7790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BE028D-AFD8-4E82-BA08-9209C28AD6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1374B7F7-F608-4E29-845B-07524F678678}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9075,17 +9075,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EB2A702-927B-4072-86FB-2C660DCA79AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7F2DAA1-89BC-41D8-954C-2112F58BB562}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{905A4960-B38C-43EB-B03D-77E3259727A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{703A911A-8868-4208-8161-B8FBD636268B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93EE9B54-010E-4F7B-8233-D3121FC4151A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F2D5E9B-46CD-4544-94F5-4CF497ADE152}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D412446-BA33-4470-AEC0-0543F7CB4968}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6F6BCB4-AE2E-4716-BFB4-0907CF8C8386}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0013C25E-5045-4E97-9B70-082EA2856E57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C20B277-4E2C-418E-BE18-89C0A01DD8BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC9AFA9A-EED7-4190-B79B-3B0DCCB90F19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70E91D98-A9A4-4D02-A4FE-E4D3AAB0998F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF6BB286-5DA0-4DED-AE0A-EA729130F992}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A5450925-2D7A-443F-969A-4792815A88FB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D05A5F8C-41FE-432D-8029-36FDF239E172}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{814DF521-645E-4FE9-BB5D-11BAAFF09004}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BEBE262F-91A6-42EE-8A77-FF8B130746CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFF80AF3-50BA-4C7B-BFAB-D9F9470A9D17}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7323E1A-AB95-4C95-86E9-D7640F906D78}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{530D2672-B236-46AB-B147-58214A553436}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6CBDB8F-1F64-43F4-9D08-5DC2740EA0BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D59AD63-5EB5-4C34-96C5-8379AB65FF93}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9098,7 +9098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B850941-E15D-4B18-93FD-68FA51AD08D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3F55CC-B685-44B5-A2C8-EC41E672E853}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10383,17 +10383,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B83C301-7F81-4E7B-95F5-29C686D446B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF90FE89-F0C5-404E-BD73-31B655DA02E1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58CAA530-F6A4-4326-B3D9-251A0C45940B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ECB5543D-F8B2-4317-8089-95AF639AEE02}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E294E5F-E2AA-4960-BEAC-3C341306151B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FF2B6E9-D214-4FD6-A060-41F353B76538}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16C50E56-AE5A-490F-859C-F37AAE69C2EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20F500CC-C673-4211-B5A6-2DE93608230A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24B95841-8A36-48EA-88BE-FBA6898EEBD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43515EF0-4954-47FF-BDC8-04C9AA8DEF5B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82384AB0-F013-49F8-8048-17A13B8A3D13}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DE73C46-2DB9-4947-81EF-ABF1EDD5AEBB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2CBC293-4CE3-4B50-B8E9-62420B8FF3A2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9BC7A9DE-21C4-4BDB-8E4F-8A289952EECA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A343374-0429-47F0-8AF5-DE536D5C25BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E931B58A-83DA-4AF7-879A-6B9CF9E6576C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C985920E-69DD-4965-99CC-5EE5632924D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E265735-394A-4855-BE09-0565859A4C28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF35D17E-7FE0-40A9-8FD1-CC351C118E82}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{383A3DF7-292E-4F86-B753-1C8E84939AA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4E1E3B6-3CC8-4E95-9B9D-97370103E51E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9AC2E5E-3A75-444E-A418-F2E9BA480B39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10406,7 +10406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F78D2EE-FDC4-4973-AF51-98E81DAE3ECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF4D387-0722-4E3D-96C6-A32C091AB62A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11691,17 +11691,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CA2ADB2-D14F-4A2A-9682-E87804C6EA3C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{233B90C5-5754-4E4F-89C8-DA2838AD462C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BC5AC54-3362-40D7-887C-ED118DA81F0F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DDDF20EC-7160-4381-9A28-CAC5B59FC25D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1103334-8A65-4FF6-B9AC-6B1F1D068FB0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D7C895BD-FF38-4469-9362-6E51218D428B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BD592F6-CCE8-423F-B524-DF519A70423A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9AE5802-C0AE-4EC9-B4E2-4623E1FCB7B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1886D6E4-CEC4-4F90-91C3-EA1AE6A35AF0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29698A70-5BC2-4C28-9B1D-CA76DA1EDFCE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56DCCDC3-75A3-4B46-A4F0-A996A031A3EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F03785EE-FB01-4894-9A5E-4A8366CE69B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9C7F137-2A11-4B9B-AC2F-0CE64DECD0E4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55ACE142-AD66-4B0C-90F1-19575D10F8CF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D124C5AA-4A0B-4B34-9A73-2CBE50642DB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71D4522D-9726-44DB-91EE-F094E7DA1E85}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89867655-300F-4F26-9655-9A78DAB7BFAA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5DDA0C6-0289-46DB-8430-DBCD09B5A4BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A44AF20-392E-45B6-BA44-5F2597345ED0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{845728A7-4790-4CB5-A750-CC930F19EC9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB40199B-3261-41D6-B434-F102A093FEE2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F26388C0-16DD-42BE-984D-980162285F3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11714,7 +11714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FE1004-E248-475F-9ECB-E1195760A5DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CB0B31-96A6-4EBD-91AB-40AB61341CC9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12999,17 +12999,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34F0C4F2-861B-4ADB-9A77-1BBC32CF8932}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A038957D-2C0A-43CF-A7B5-C10CFEA1510F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05229643-0076-485A-9788-38AAD5C8AFC3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F53B52DB-20E7-4804-A049-B713D104F9BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13769D9E-2058-4A19-BC82-2B98C8E3964F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B928B50-995E-4C98-A9A1-A0D303711C27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B65DA8B-8738-4DAB-888C-B817445D2989}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9928AD8F-8875-4EE3-AD4B-498A08D3F18D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{611C3B5D-4676-4691-9264-2DDD3C8A0DB3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B786E26E-016C-45E7-8533-1339E353CC4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{113740AE-08A7-4B35-AB97-C7ED7A286138}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E86B01C-447A-463A-A168-1AD73702A4BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A034560-13F3-4A54-A43D-CB27C7565773}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2EADFA21-3397-4049-A9B4-5433C84BB39E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66222E99-3B40-49BF-8182-4189B5854C3F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0B0D148-A347-427D-88D3-90DE9758F8E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66854596-BC9A-4AE1-AE2F-C8E80E6E95D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D337A63D-B1DD-44BB-B694-9AD630BD8319}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52970AB4-40D0-4A27-A375-832612EE19A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57883503-610B-450B-A50A-937083589CAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57F8028B-F167-41F6-9E0A-51E6B4E9568D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23A634BD-0B69-4A35-AD8F-6617D7749C59}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13022,7 +13022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D80A0B-51E3-44E4-B224-857128AB5C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B2F99-B152-48E4-93D4-707419800F87}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14307,17 +14307,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56F19A0E-EB9E-4081-8859-30A482C6B61E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B57CAEE-0BB4-4CB4-8A6E-6583CE5D4C05}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F49F88A-7204-46B4-91B9-BE70B5751242}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6CF7F3DA-F370-4113-8649-0001EFDC1AFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{328CCE43-F7B9-41B1-8356-6401F7767564}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD16C861-470B-4CC7-9D37-753CC49D664B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61F474CC-3D7D-4363-B3E3-07DD598D8089}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{345C3C5B-B462-4661-9BA0-FA64E198A6DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B993BB20-92AD-4AE8-BE67-B732845309B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B9416F6-3463-4E78-A3DA-63F6F67B932C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66392793-B21F-46F6-852F-F010A8177715}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FAC380DE-66DE-48F8-8FCB-CBA4144AB16F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0B2E8E7-657D-4DED-B843-9C606B2C3862}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38C6B74C-2D99-42D7-B7AB-511EB22CB5D1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E2440EB-A359-485B-B515-8D1BAF0D1EFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3ABE24C9-BAC4-4E09-9EF9-1F23E8C45271}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D3808603-73EA-4CB2-B8B3-8E9701727C4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CED12DA9-F8AF-4AF5-9959-E7430A258E24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{283E3E46-5125-4664-BEE3-1DBC10C55913}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{818F7151-C175-4B03-B7F2-5B9BBCEA3120}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44D418ED-D31B-4D2B-9CE1-427C7AB040CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{101357F1-FEFC-483B-A57C-E87CB7EF8CF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14330,7 +14330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C657FA26-5AB4-43CF-B08B-C62B6F5DE2F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF7D975-1193-4F78-85B0-5575F47DCF0B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15611,17 +15611,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D11960D-88E7-45F3-A989-43938DC48026}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D267CBCB-9454-4AD1-B20D-54371286A36C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6EFBEDDE-2ACF-4FE8-A7A9-48B337A58DBC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5636620B-6AEA-4396-911C-729B959458D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C84A1504-8599-4BBB-AC91-5E8DB1DF9618}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59A1EBD3-DB50-4BA2-8757-F95C4C827619}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17079729-4807-469C-AABC-9A39C82F0C74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A9F0E3D-428D-47F7-B761-E661B86B3F29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{17F9F71C-C4C0-4348-8DBA-6046FB28DC62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50891AD6-5359-4376-B263-31D03654C501}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5D1B548-7B66-4EC4-9F0C-60DACC83F020}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78054C40-97CE-4270-B3A6-3B93127D64F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ABBD84B-4F6A-41BE-AFD1-3BD3C2FADAC5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B1CA7C7-5961-40D2-BBE2-FA0CCAF0D40A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3BB32F46-D40C-4848-A096-15BEB7B517FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BD53231-C757-46D8-A51C-ACD5F59B0673}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8365765-4562-4181-95D1-7F082D059A47}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3170F72A-737B-4F3E-8CE5-D7E013C9BB58}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F65B537D-02D6-4C24-B5AF-6D3536EF0514}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{191CA4BD-7E66-4211-B735-3AE78F298745}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BF4ABAF-9184-4FB4-8A08-20C9B1A0F66A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D10FEC4D-43E6-4448-9A32-3580FF8F50F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15634,7 +15634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10BB19F-7DD0-42D4-8388-A57F78F18F18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000ABF4B-E7A6-4BFC-B3C8-3747766272CA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16911,17 +16911,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1A84D84-73B1-458C-923D-FA2DF3D1931B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B2FFB36-5016-4721-8F0B-EC5314E08A13}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{791CF08D-B40C-4ADA-99B2-BC0C60417B62}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{86873C16-D333-4B0F-B4C9-7E58ED56DFAB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33FA7813-8336-4234-9846-4594D7DA1E87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7FC65F1F-69E3-4604-ACC1-604D8C6E348E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C74A13B5-B0DA-4E1A-8C69-4A1AF24B4633}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA8DC1FC-60D3-4E7B-BCB3-ADE4C5ED651A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C0D9177-D422-4629-9110-AAD07A0FA5B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EE816FE-F09C-4286-BCCB-D4003F309BF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E931763-D902-42E7-B953-63652BD1DF68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{436A5968-51A2-4A8D-8358-A4F172D3E833}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E4FAC23-3A56-4DF2-BAF7-A7F5B7210FC9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE376216-445F-4E95-BF4F-4F9EB44F6BB2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{93FF103F-BC3C-4272-AD91-9E1340162AC3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D62C55B-5B76-44A4-ADFD-47510825780B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF5FF6EF-F2D3-43AA-88B4-D8291426EF32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76939233-CF60-4027-8927-176B7A40FC13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB8ED233-F24A-459D-B2D4-A3F72FC8B231}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D026FAE8-874A-4996-8F7D-42D089EB780B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFEE5BF6-417F-4D9C-932D-3A5F1D541748}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6FDA76E-7419-4963-B6B6-92C9B90A5093}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
